--- a/data/raw/EGI/EGI-2016.xlsx
+++ b/data/raw/EGI/EGI-2016.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastián\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/raw/EGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60349451-2AE3-4D8F-89E3-544358C89249}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$194</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +26,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="216">
   <si>
     <t>region</t>
   </si>
@@ -658,9 +665,6 @@
   </si>
   <si>
     <t>followup</t>
-  </si>
-  <si>
-    <t>certificate</t>
   </si>
   <si>
     <t>citizen</t>
@@ -748,7 +752,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1048,12 +1052,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>197</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
         <v>203</v>
@@ -1091,7 +1098,7 @@
         <v>206</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
         <v>207</v>
@@ -1100,22 +1107,22 @@
         <v>208</v>
       </c>
       <c r="P1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>211</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>212</v>
       </c>
-      <c r="S1" t="s">
-        <v>213</v>
-      </c>
       <c r="T1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1918,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1980,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2042,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2228,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2290,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2414,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2538,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2724,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2848,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2910,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -3096,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3158,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3282,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3341,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3403,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3465,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3527,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3589,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3651,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -3713,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -3775,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -3789,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3975,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -4099,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -4347,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -4409,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4471,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -4595,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -4657,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -4719,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -4781,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4843,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4967,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -5091,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -5153,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -5215,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -5277,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -5339,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -5401,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -5463,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -5522,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -5584,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -5646,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -5708,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -5770,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -5894,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5956,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -6018,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -6080,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -6263,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6325,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -6387,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -6449,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -6511,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -6573,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -6635,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -6697,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -6759,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -6821,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -6883,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -6945,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -7007,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -7069,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -7131,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -7193,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -7255,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -7317,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -7379,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -7393,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -7455,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -7517,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -7576,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -7638,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -7700,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -7762,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -7824,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -7886,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -7948,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -8010,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -8072,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -8134,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -8196,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -8258,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -8382,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -8444,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -8458,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -8520,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -8582,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -8644,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -8706,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -8830,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -8892,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -9016,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -9078,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -9140,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -9202,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -9264,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -9326,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -9388,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -9447,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -9509,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -9571,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -9633,7 +9640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -9695,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -9757,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -9819,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -9881,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -9943,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -10005,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -10067,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -10126,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -10188,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -10250,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -10312,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -10374,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -10436,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -10495,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -10557,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -10619,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -10681,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -10743,7 +10750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -10805,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -10867,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -10929,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -10991,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -11053,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -11115,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -11177,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -11239,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>172</v>
       </c>
@@ -11301,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>173</v>
       </c>
@@ -11363,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -11425,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -11487,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>176</v>
       </c>
@@ -11549,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>177</v>
       </c>
@@ -11611,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -11673,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -11735,7 +11742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>180</v>
       </c>
@@ -11797,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -11859,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -11921,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>183</v>
       </c>
@@ -11983,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -12045,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>185</v>
       </c>
@@ -12107,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>186</v>
       </c>
@@ -12169,7 +12176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -12231,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -12290,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>189</v>
       </c>
@@ -12352,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>190</v>
       </c>
@@ -12414,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -12476,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -12538,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -12600,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -12662,7 +12669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -12724,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>196</v>
       </c>
@@ -12786,77 +12793,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D193" s="1">
-        <f>SUM(D2:D192)</f>
+        <f t="shared" ref="D193:T193" si="0">SUM(D2:D192)</f>
         <v>167</v>
       </c>
       <c r="E193" s="1">
-        <f>SUM(E2:E192)</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="F193" s="1">
-        <f>SUM(F2:F192)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="G193" s="1">
-        <f>SUM(G2:G192)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H193" s="1">
-        <f>SUM(H2:H192)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="I193" s="1">
-        <f>SUM(I2:I192)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="J193" s="1">
-        <f>SUM(J2:J192)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="K193" s="1">
-        <f>SUM(K2:K192)</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="L193" s="1">
-        <f>SUM(L2:L192)</f>
+        <f t="shared" si="0"/>
         <v>181</v>
       </c>
       <c r="M193" s="1">
-        <f>SUM(M2:M192)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N193" s="1">
-        <f>SUM(N2:N192)</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="O193" s="1">
-        <f>SUM(O2:O192)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="P193" s="1">
-        <f>SUM(P2:P192)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="Q193" s="1">
-        <f>SUM(Q2:Q192)</f>
+        <f t="shared" si="0"/>
         <v>153</v>
       </c>
       <c r="R193" s="1">
-        <f>SUM(R2:R192)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S193" s="1">
-        <f>SUM(S2:S192)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T193" s="1">
-        <f>SUM(T2:T192)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D194" s="1" t="s">
         <v>199</v>
       </c>
@@ -12870,7 +12877,7 @@
         <v>202</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>203</v>
@@ -12885,7 +12892,7 @@
         <v>206</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>207</v>
@@ -12894,22 +12901,22 @@
         <v>208</v>
       </c>
       <c r="P194" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q194" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q194" s="1" t="s">
+      <c r="R194" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R194" s="1" t="s">
+      <c r="S194" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S194" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="T194" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="195" spans="4:20" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="4:20" x14ac:dyDescent="0.3">
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -12918,6 +12925,7 @@
       <c r="O195" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T194" xr:uid="{C0BB404C-7B3B-4680-835A-AB399C563FB6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
